--- a/书籍信息.xlsx
+++ b/书籍信息.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\DriftShelf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\DriftShelf\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A73D77-1BEB-47D4-BD89-45BB31632AA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915173DF-FE83-4B60-8996-5712B74C4D60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12960" xr2:uid="{249A79BE-68BF-44EE-89BE-B3D0C434389A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{249A79BE-68BF-44EE-89BE-B3D0C434389A}"/>
   </bookViews>
   <sheets>
     <sheet name="书籍信息" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>书名</t>
   </si>
@@ -46,39 +46,6 @@
   </si>
   <si>
     <t>捐赠留言</t>
-  </si>
-  <si>
-    <t>cyw</t>
-  </si>
-  <si>
-    <t>《书籍1》</t>
-  </si>
-  <si>
-    <t>我</t>
-  </si>
-  <si>
-    <t>文学理论</t>
-  </si>
-  <si>
-    <t>Aa-01</t>
-  </si>
-  <si>
-    <t>hi1</t>
-  </si>
-  <si>
-    <t>《书籍2》</t>
-  </si>
-  <si>
-    <t>你</t>
-  </si>
-  <si>
-    <t>中国古典名著</t>
-  </si>
-  <si>
-    <t>Ab-01</t>
-  </si>
-  <si>
-    <t>hi2</t>
   </si>
 </sst>
 </file>
@@ -130,27 +97,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -169,7 +121,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -489,7 +441,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -504,7 +456,7 @@
     <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -524,46 +476,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.2" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>

--- a/书籍信息.xlsx
+++ b/书籍信息.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\DriftShelf\dist\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\DriftShelf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915173DF-FE83-4B60-8996-5712B74C4D60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09732E59-B500-4655-8675-58AE6F5B07C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{249A79BE-68BF-44EE-89BE-B3D0C434389A}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12960" xr2:uid="{249A79BE-68BF-44EE-89BE-B3D0C434389A}"/>
   </bookViews>
   <sheets>
     <sheet name="书籍信息" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>书名</t>
   </si>
@@ -46,6 +46,30 @@
   </si>
   <si>
     <t>捐赠留言</t>
+  </si>
+  <si>
+    <t>mrcai</t>
+  </si>
+  <si>
+    <t>程序设计</t>
+  </si>
+  <si>
+    <t>Ck-01</t>
+  </si>
+  <si>
+    <t>cyw</t>
+  </si>
+  <si>
+    <t>《java》</t>
+  </si>
+  <si>
+    <t>hi1</t>
+  </si>
+  <si>
+    <t>《python》</t>
+  </si>
+  <si>
+    <t>hi2</t>
   </si>
 </sst>
 </file>
@@ -441,15 +465,15 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.88671875" style="2" customWidth="1"/>
@@ -476,13 +500,45 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
